--- a/biology/Zoologie/Cibdela_janthina/Cibdela_janthina.xlsx
+++ b/biology/Zoologie/Cibdela_janthina/Cibdela_janthina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cibdela janthina est une espèce d'insectes hyménoptères, de la famille des Tenthredinidae. Elle est originaire de l’île de Sumatra en Asie du Sud-Est.
-À l'âge adulte elle a une couleur bleu métallique. Les mâles atteignent une taille de 8 mm et les femelles 9,5 mm[2].
+À l'âge adulte elle a une couleur bleu métallique. Les mâles atteignent une taille de 8 mm et les femelles 9,5 mm.
 C. janthina a été introduite à La Réunion en 2007 avec autorisation préfectorale pour la lutte biologique contre une ronce envahissante, la vigne marronne. Elle y est surnommée « mouche bleue ».
 			Cibdela janthina
 			Cibdela janthina
